--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1249083.47753811</v>
+        <v>1246602.55771265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579949</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>159.1433492410432</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>345.5302507929517</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
@@ -1540,13 +1540,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>124.5282104711835</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>137.1873672700935</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>143.6814986265691</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>156.9009475664149</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
@@ -1771,19 +1771,19 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>111.5890535497929</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>63.35825561416328</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>177.028532975772</v>
       </c>
       <c r="G17" t="n">
         <v>337.0264424477344</v>
@@ -1898,10 +1898,10 @@
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>97.90474570419462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
         <v>275.345685511694</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365929147</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2090,13 +2090,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134332533</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.22112280504632</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>134.9383736358133</v>
       </c>
       <c r="F22" t="n">
-        <v>133.9254590121749</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
         <v>22.45713720411909</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531829</v>
@@ -2384,7 +2384,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>133.9254590121761</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.43656365929101</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210281</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.5480262953166</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>196.6598613601163</v>
       </c>
       <c r="W37" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060922</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>231.0452163728793</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T43" t="n">
-        <v>164.0711673124577</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,7 +4034,7 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.067538242029</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
         <v>251.556248489308</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,7 +4138,7 @@
         <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
         <v>48.74924241846421</v>
@@ -4186,22 +4186,22 @@
         <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419018</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.1068713883833</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.052518175211</v>
+        <v>1808.944505008065</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3164.854963789934</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="U11" t="n">
-        <v>3164.854963789934</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="V11" t="n">
-        <v>2860.984143706087</v>
+        <v>2842.949321169269</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.407555695697</v>
+        <v>2517.372733158879</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.407555695697</v>
+        <v>2517.372733158879</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979609</v>
+        <v>2168.352277812463</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.244090101323</v>
+        <v>637.8338681055724</v>
       </c>
       <c r="C13" t="n">
-        <v>640.4999744331398</v>
+        <v>496.0897524373891</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5754022805278</v>
+        <v>496.0897524373891</v>
       </c>
       <c r="E13" t="n">
-        <v>396.8543759578584</v>
+        <v>375.3687261147197</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196717</v>
+        <v>255.670845876533</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541144</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541144</v>
@@ -5200,49 +5200,49 @@
         <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1883.289170905035</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1621.378371290402</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.884554376953</v>
+        <v>1393.885950344239</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.098483193939</v>
+        <v>1131.660847567002</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.300999555645</v>
+        <v>930.8633639287082</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.700487671839</v>
+        <v>792.2902656760884</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1511.030417885062</v>
+        <v>1222.405595170597</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.259968204374</v>
+        <v>880.6351454899084</v>
       </c>
       <c r="D14" t="n">
-        <v>838.1863368573468</v>
+        <v>880.6351454899084</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1863368573468</v>
+        <v>735.5023185943841</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274629</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039936</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="U14" t="n">
-        <v>2905.235734417295</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V14" t="n">
-        <v>2905.235734417295</v>
+        <v>2616.61091170283</v>
       </c>
       <c r="W14" t="n">
-        <v>2579.659146406904</v>
+        <v>2291.034323692439</v>
       </c>
       <c r="X14" t="n">
-        <v>2233.385455405548</v>
+        <v>1944.760632691083</v>
       </c>
       <c r="Y14" t="n">
-        <v>1870.43819068946</v>
+        <v>1581.813367974995</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>773.5665187697471</v>
+        <v>846.2423280954279</v>
       </c>
       <c r="C16" t="n">
-        <v>631.8224031015639</v>
+        <v>704.4982124272445</v>
       </c>
       <c r="D16" t="n">
-        <v>508.8978309489518</v>
+        <v>581.5736402746325</v>
       </c>
       <c r="E16" t="n">
-        <v>396.1816152420903</v>
+        <v>460.852613951963</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420903</v>
+        <v>341.1547337137762</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765329</v>
+        <v>200.6439643482187</v>
       </c>
       <c r="H16" t="n">
         <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
@@ -5440,7 +5440,7 @@
         <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1945.927560887783</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1684.01676127315</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1456.524340326987</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535534</v>
+        <v>1194.29923754975</v>
       </c>
       <c r="X16" t="n">
-        <v>967.1670306535534</v>
+        <v>1194.29923754975</v>
       </c>
       <c r="Y16" t="n">
-        <v>773.5665187697471</v>
+        <v>1000.698725665944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1697.792834060368</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1403.472017327754</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1119.8480189288</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>808.701466538353</v>
       </c>
       <c r="F17" t="n">
         <v>629.8847665628257</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3059.727123406592</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406592</v>
+        <v>2902.199618800308</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2624.072663737991</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2325.248605684708</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>2009.750973916693</v>
       </c>
     </row>
     <row r="18">
@@ -5695,13 +5695,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
         <v>1370.445531062878</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084841</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352226</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>941.0313189532726</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8126900199873</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381767</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3290.028929886902</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.692882478921</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.804105960554</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.38291882478</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.255963762463</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.43190570918</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.934273941166</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235544</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034445</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989058</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243097</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
         <v>253.8327163978704</v>
@@ -5902,22 +5902,22 @@
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604109</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817302</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459971</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349348</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.4813261528525</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>722.300699842699</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1173.334913091108</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1706.866817763032</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2253.645634821815</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2756.618105701152</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.39247205833</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6054,22 +6054,22 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
         <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130995</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
         <v>772.017383606112</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>639.0174115138544</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>544.7229287937446</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>469.2479895892059</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>395.9765962146098</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881693</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1855.94143530779</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342413</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.522905762251</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>892.1750550720302</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>746.0241761362971</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398489</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>907.4660419013965</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6300,31 +6300,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6452,49 +6452,49 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6686,55 +6686,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644151</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702933</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3613.827445186491</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
         <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257032</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913833</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415462</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643384</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519658</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127573</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586938</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463581</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639649</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7225416660546</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388404</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691537</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7269,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650704</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110069</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725146</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639649</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>324.393976239898</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>156.691139614617</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1323.410616184332</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1068.726127978445</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153274</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911535</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214668</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7415,10 +7415,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,7 +7436,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7448,13 +7448,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,28 +7479,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>796.945134112466</v>
+        <v>698.2736995386226</v>
       </c>
       <c r="C43" t="n">
-        <v>726.6803857584025</v>
+        <v>628.0089511845591</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>477.8923117722234</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>329.9792181898303</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,16 +7588,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1668.551646658397</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
         <v>1478.120214357884</v>
@@ -7606,13 +7606,13 @@
         <v>1322.10716072584</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.361425262723</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.043308938549</v>
+        <v>903.3718743647057</v>
       </c>
       <c r="Y43" t="n">
-        <v>879.9221643688624</v>
+        <v>781.250729795019</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7673,7 +7673,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909357</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368722</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
         <v>280.5494426245365</v>
@@ -7804,16 +7804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W46" t="n">
-        <v>877.9803925153276</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911536</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473321</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729012</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389609</v>
+        <v>191.4948909389604</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830241</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.0103836266124</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677696</v>
+        <v>92.30246558677658</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.49943471853</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784353</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>306.6874953089246</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>167.7369666428374</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,22 +10352,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>40.02214132148708</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>71.87446026386894</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104942</v>
       </c>
       <c r="T11" t="n">
-        <v>17.85447431145056</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.78754127597548</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>135.074641278281</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>54.47713949487485</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>211.3287248585662</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>67.17407780536064</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>7.924762509649867</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54.47661271303107</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>155.9522295602204</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>79.19514304898833</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134019</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07135577741048849</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-9.557960615071723e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>995366.1722937276</v>
+        <v>995366.1722937274</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815302.8242607313</v>
+        <v>815302.8242607312</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815302.8242607313</v>
+        <v>815302.8242607311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886792.7266364489</v>
+        <v>886792.726636449</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886792.726636449</v>
+        <v>886792.7266364491</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>930155.6149525354</v>
+        <v>930155.6149525353</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>946225.3027009938</v>
+        <v>946225.302700994</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915954.7701159704</v>
+        <v>915954.7701159705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>532529.620166075</v>
+      </c>
+      <c r="C2" t="n">
         <v>532529.6201660751</v>
-      </c>
-      <c r="C2" t="n">
-        <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
         <v>532544.1353738651</v>
       </c>
       <c r="E2" t="n">
-        <v>474201.0005882342</v>
+        <v>474201.0005882339</v>
       </c>
       <c r="F2" t="n">
         <v>474201.0005882343</v>
@@ -26329,31 +26329,31 @@
         <v>516445.0338102492</v>
       </c>
       <c r="H2" t="n">
-        <v>516445.0338102494</v>
+        <v>516445.0338102492</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="J2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="K2" t="n">
         <v>533677.150411784</v>
       </c>
-      <c r="K2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="L2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="O2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="P2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117844</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552221</v>
+        <v>59764.5536755228</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>435086.1724434265</v>
+        <v>435086.1724434263</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866209</v>
+        <v>40634.10590866207</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866208</v>
+        <v>40634.10590866204</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010429</v>
+        <v>77662.26627010427</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.2662701043</v>
+        <v>77662.26627010427</v>
       </c>
       <c r="I4" t="n">
-        <v>91903.6849490593</v>
+        <v>91903.68494905927</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462834</v>
+        <v>91012.35309462828</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462834</v>
+        <v>91012.35309462823</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462831</v>
+        <v>91012.35309462826</v>
       </c>
       <c r="M4" t="n">
+        <v>92793.84288319398</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92793.84288319397</v>
+      </c>
+      <c r="O4" t="n">
+        <v>92793.842883194</v>
+      </c>
+      <c r="P4" t="n">
         <v>92793.84288319401</v>
-      </c>
-      <c r="N4" t="n">
-        <v>92793.84288319407</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92793.84288319404</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92793.84288319403</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26485,31 +26485,31 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41126.6593405376</v>
+        <v>41122.24576266936</v>
       </c>
       <c r="C6" t="n">
-        <v>41126.65934053748</v>
+        <v>41122.24576266948</v>
       </c>
       <c r="D6" t="n">
-        <v>2544.50382305008</v>
+        <v>2540.146072903866</v>
       </c>
       <c r="E6" t="n">
-        <v>-732241.5678488869</v>
+        <v>-732470.3222712846</v>
       </c>
       <c r="F6" t="n">
-        <v>356997.4043147458</v>
+        <v>356768.6498923475</v>
       </c>
       <c r="G6" t="n">
-        <v>320684.015120056</v>
+        <v>320617.7377485116</v>
       </c>
       <c r="H6" t="n">
-        <v>358264.1244149304</v>
+        <v>358197.8470433857</v>
       </c>
       <c r="I6" t="n">
-        <v>333215.4693310494</v>
+        <v>333215.4693310497</v>
       </c>
       <c r="J6" t="n">
-        <v>327877.4226205525</v>
+        <v>327877.4226205529</v>
       </c>
       <c r="K6" t="n">
-        <v>353286.8556423499</v>
+        <v>353286.8556423496</v>
       </c>
       <c r="L6" t="n">
-        <v>315706.7463474757</v>
+        <v>315706.7463474756</v>
       </c>
       <c r="M6" t="n">
         <v>156196.610229616</v>
       </c>
       <c r="N6" t="n">
-        <v>358364.7102223405</v>
+        <v>358364.7102223404</v>
       </c>
       <c r="O6" t="n">
+        <v>358364.7102223401</v>
+      </c>
+      <c r="P6" t="n">
         <v>358364.7102223403</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358364.7102223405</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810496</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790574</v>
+        <v>69.78465283790644</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810301</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790574</v>
+        <v>69.78465283790644</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.22861846672106</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987527</v>
+        <v>90.83829126987517</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519093</v>
+        <v>84.46220888519083</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990474</v>
+        <v>7.649035050990328</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317062</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.49558901075586</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
         <v>73.89528320571901</v>
@@ -28776,7 +28776,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V19" t="n">
         <v>73.89528320571901</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="F22" t="n">
-        <v>11.49558901075636</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075517</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.49558901075633</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.47778196371162</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371175</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371156</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,13 +30426,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -30441,13 +30441,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371166</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="42">
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -30630,13 +30630,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T43" t="n">
-        <v>55.47778196371149</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
         <v>97.68472022810496</v>
@@ -30873,7 +30873,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>55.47778196371107</v>
+      </c>
+      <c r="V46" t="n">
         <v>97.68472022810496</v>
       </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.47778196371146</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413294</v>
+        <v>0.2805413179413322</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236664</v>
+        <v>2.873093772366669</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993311</v>
+        <v>10.81556915993322</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362293</v>
+        <v>23.81059368362316</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207941</v>
+        <v>35.68590767207976</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102637</v>
+        <v>44.27152403102681</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396549</v>
+        <v>49.26060069396598</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135663</v>
+        <v>50.0576887135668</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832872</v>
+        <v>47.26805598328767</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661063</v>
+        <v>40.34219219661102</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783676</v>
+        <v>30.29530624783706</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313205</v>
+        <v>17.62255356313223</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258805</v>
+        <v>6.392835282588114</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928817</v>
+        <v>1.228069619288182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530635</v>
+        <v>0.02244330543530657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796463</v>
+        <v>0.1501028381796478</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840269</v>
+        <v>1.449677410840283</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693963</v>
+        <v>5.168014384694015</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906913</v>
+        <v>14.18142647906927</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710543</v>
+        <v>24.23831663710567</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264645</v>
+        <v>32.59140791264678</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665862</v>
+        <v>38.032635796659</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655634</v>
+        <v>39.03924649655674</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084705</v>
+        <v>35.71328360847085</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449755</v>
+        <v>28.66305863449784</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447555</v>
+        <v>19.16049562447575</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767868</v>
+        <v>9.319542882767962</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78809438460878</v>
+        <v>2.788094384608807</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890128</v>
+        <v>0.6050197731890188</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345155</v>
+        <v>0.009875186722345254</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486825</v>
+        <v>0.1258411772486837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811014</v>
+        <v>1.118842466811025</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078561</v>
+        <v>3.784387403078599</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481849</v>
+        <v>8.896971231481938</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489238</v>
+        <v>14.62045677489252</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247723</v>
+        <v>18.70915102477249</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390821</v>
+        <v>19.7261765390823</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115521</v>
+        <v>19.25713215115541</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875014</v>
+        <v>17.78707839875032</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287701</v>
+        <v>15.21991838287716</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852377</v>
+        <v>10.53748257852387</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381667</v>
+        <v>5.658276933381723</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233856</v>
+        <v>2.193068516233878</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625522</v>
+        <v>0.5376850300625576</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564506</v>
+        <v>0.006864064213564574</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>318.2864356872425</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086619</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>643.8787818643251</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5312714465568</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>548.0751422097061</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>322.6687650675884</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,19 +37230,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
